--- a/results/co_mention_summary.xlsx
+++ b/results/co_mention_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>paper</t>
   </si>
@@ -26,37 +26,13 @@
     <t>1 aagaard jgrb50217.pdf</t>
   </si>
   <si>
-    <t>104 heckman_vm_2013_thesis.pdf</t>
-  </si>
-  <si>
-    <t>109 Geophys. J. Int.-2014-Hetland-gji-ggu127.pdf</t>
-  </si>
-  <si>
-    <t>110 hines jgrb17158.pdf</t>
-  </si>
-  <si>
-    <t>111 hoinnk 9caa68591e024b88007ee62f35897ff0ab8c6b384d810e5270b22a44b2dc351c.pdf</t>
-  </si>
-  <si>
-    <t>112 hoink c099664c5052a304076569e783059ace18e002336b91964764d5059c7721c986.pdf</t>
-  </si>
-  <si>
-    <t>120 husson 1-s2.0-S0012821X11007084-main.pdf</t>
+    <t>102 harig ggge1727.pdf</t>
   </si>
   <si>
     <t>122 jadamec jgrb16995.pdf</t>
   </si>
   <si>
-    <t>126 jerry 869214043-MIT.pdf</t>
-  </si>
-  <si>
-    <t>128 jha 881691213-MIT.pdf</t>
-  </si>
-  <si>
-    <t>129 jha wrcr20906.pdf</t>
-  </si>
-  <si>
-    <t>133 karimi 1-s2.0-S0040195114001437-main.pdf</t>
+    <t>125 jadamec 1-s2.0-S0012821X13003257-main.pdf</t>
   </si>
   <si>
     <t>136 Kim_et_al-2011-Geophysical_Journal_International.pdf</t>
@@ -65,163 +41,97 @@
     <t>137 King_et_al-2010-Geophysical_Journal_International.pdf</t>
   </si>
   <si>
-    <t>138 kom 1-s2.0-S1631072110002081-main.pdf</t>
+    <t>140 kom 1-s2.0-S0021999110003396-main.pdf</t>
   </si>
   <si>
     <t>142 kom jgrb16319.pdf</t>
   </si>
   <si>
-    <t>146 Kronbichler_et_al-2012-Geophysical_Journal_International.pdf</t>
-  </si>
-  <si>
-    <t>149 lassak 1-s2.0-S0012821X09006591-main.pdf</t>
-  </si>
-  <si>
     <t>15 a14-bangerth.pdf</t>
   </si>
   <si>
-    <t>153 lee 1-s2.0-S0012821X14002416-main.pdf</t>
+    <t>151 lee Geology-2010-Lee-583-6.pdf</t>
   </si>
   <si>
     <t>154 Geophys. J. Int.-2013-Lee-gji-ggt124.pdf</t>
   </si>
   <si>
-    <t>160 liu nature10749.pdf</t>
-  </si>
-  <si>
-    <t>161 liu 1-s2.0-S0012821X11005474-main.pdf</t>
-  </si>
-  <si>
-    <t>165 maceira grl52498.pdf</t>
-  </si>
-  <si>
-    <t>166 magnoni 73.full.pdf</t>
-  </si>
-  <si>
-    <t>167 Miah.pdf</t>
-  </si>
-  <si>
-    <t>169 Geophys. J. Int.-2013-Martens-1738-54.pdf</t>
-  </si>
-  <si>
-    <t>171 Matsui_et_al-2014-Geochemistry,_Geophysics,_Geosystems.pdf</t>
-  </si>
-  <si>
-    <t>172 matthews 1-s2.0-S1342937X10001358-main.pdf</t>
-  </si>
-  <si>
-    <t>173 Matthews_SW_Pacific_Late_Cretaceous_to_present-day_tectonics_and_geodynamics_EABS4_2012.pdf</t>
-  </si>
-  <si>
-    <t>176 mcnamara 1-s2.0-S0012821X10004802-main.pdf</t>
+    <t>157 li grl51323.pdf</t>
   </si>
   <si>
     <t>177 Melini_et_al-2010-Geophysical_Journal_International.pdf</t>
   </si>
   <si>
-    <t>180 meng jgrb17044.pdf</t>
-  </si>
-  <si>
-    <t>181 mercerat grl29280.pdf</t>
-  </si>
-  <si>
-    <t>186 Geophys. J. Int.-2013-Monteiller-230-47.pdf</t>
-  </si>
-  <si>
-    <t>187 Morency_et_al-2011-Geophysical_Journal_International.pdf</t>
-  </si>
-  <si>
-    <t>19 basini ggge20081.pdf</t>
-  </si>
-  <si>
     <t>196 n-m se-5-425-2014.pdf</t>
   </si>
   <si>
-    <t>200 olson PhanDyn.pdf</t>
-  </si>
-  <si>
-    <t>204 pasyanos jgrb50576.pdf</t>
+    <t>198 olivieri 1-s2.0-S0921818113001756-main.pdf</t>
+  </si>
+  <si>
+    <t>2 Geophys. J. Int.-2014-Agius-1395-415.pdf</t>
   </si>
   <si>
     <t>205 Peter_et_al-2011-Geophysical_Journal_International.pdf</t>
   </si>
   <si>
-    <t>209 ramsay 1-s2.0-S0264370710001602-main.pdf</t>
-  </si>
-  <si>
-    <t>21 Becker 1-s2.0-S0012821X11004857-main.pdf</t>
-  </si>
-  <si>
-    <t>220 rey nature13728.pdf</t>
-  </si>
-  <si>
-    <t>225 roberts jgre2971 (1).pdf</t>
-  </si>
-  <si>
-    <t>232 schmandt grl52128.pdf</t>
+    <t>212 a38-rietmann.pdf</t>
+  </si>
+  <si>
+    <t>215 retailleau adgeo-40-27-2015.pdf</t>
+  </si>
+  <si>
+    <t>222 ringler 1-s2.0-S0098300414002842-main.pdf</t>
+  </si>
+  <si>
+    <t>231 scbaefer grl28681.pdf</t>
   </si>
   <si>
     <t>233 Schuberth_et_al-2012-Geophysical_Journal_International.pdf</t>
   </si>
   <si>
+    <t>236 serpelloni jgrb50405.pdf</t>
+  </si>
+  <si>
+    <t>239 Shephard_ArgentineBasin_anomalous_depth_GR2012.pdf</t>
+  </si>
+  <si>
     <t>243 solomatov 1-s2.0-S0031920112000726-main.pdf</t>
   </si>
   <si>
     <t>244 Spada_et_al-2011-Geophysical_Journal_International.pdf</t>
   </si>
   <si>
+    <t>245 spada 1-s2.0-S0921818114000666-main.pdf</t>
+  </si>
+  <si>
     <t>246 Spada_et_al-2012-Geophysical_Journal_International.pdf</t>
   </si>
   <si>
-    <t>251 sramek jgre2967.pdf</t>
-  </si>
-  <si>
-    <t>252 sramek jgre2800.pdf</t>
+    <t>247 spada 6548-14045-1-PB.pdf</t>
+  </si>
+  <si>
+    <t>248 spada j.1365-246X.2012.05663.x.pdf</t>
   </si>
   <si>
     <t>256 tago jgrb17293.pdf</t>
   </si>
   <si>
-    <t>257 tan ggge2018.pdf</t>
-  </si>
-  <si>
     <t>258 Tape_et_al-2010-Geophysical_Journal_International.pdf</t>
   </si>
   <si>
-    <t>261 Full Thesis Jeff Thompson.pdf</t>
-  </si>
-  <si>
-    <t>263 toker 1-s2.0-S0012821X11004353-main.pdf</t>
+    <t>262 to 1-s2.0-S0031920110002311-main.pdf</t>
   </si>
   <si>
     <t>264 Geophys. J. Int.-2014-Tong-369-95.pdf</t>
   </si>
   <si>
-    <t>27 billen ggge2110.pdf</t>
-  </si>
-  <si>
-    <t>271 tuccimei 1-s2.0-S1040618211006112-main.pdf</t>
-  </si>
-  <si>
-    <t>273 Geophys. J. Int.-2014-van Driel-880-93.pdf</t>
+    <t>266 Tromp_et_al-2010-Geophysical_Journal_International.pdf</t>
   </si>
   <si>
     <t>274 Geophys. J. Int.-2014-van Driel-1078-93.pdf</t>
   </si>
   <si>
-    <t>275 vanhins jgrb16783.pdf</t>
-  </si>
-  <si>
-    <t>281 weller grl29066.pdf</t>
-  </si>
-  <si>
-    <t>282 weller 1-s2.0-S0012821X15001648-main.pdf</t>
-  </si>
-  <si>
-    <t>284 williams grl52609.pdf</t>
-  </si>
-  <si>
-    <t>285 woppel jgrc12296.pdf</t>
+    <t>280 wang jgrb50828.pdf</t>
   </si>
   <si>
     <t>286 Geophys. J. Int.-2015-Xie-996-1021.pdf</t>
@@ -230,28 +140,13 @@
     <t>287 xie jgrb50296.pdf</t>
   </si>
   <si>
-    <t>288 Geophys. J. Int.-2014-Xie-1714-47.pdf</t>
-  </si>
-  <si>
-    <t>290 yikilmaz npg-18-955-2011.pdf</t>
-  </si>
-  <si>
-    <t>299 zha jgrb50675.pdf</t>
-  </si>
-  <si>
-    <t>300 zhang 1-s2.0-S0012821X11002068-main.pdf</t>
-  </si>
-  <si>
-    <t>301 zhang 1-s2.0-S0012821X1100639X-main.pdf</t>
-  </si>
-  <si>
-    <t>302 zhang jgrb16365.pdf</t>
-  </si>
-  <si>
-    <t>306 zheng 1-s2.0-S0031920114002155-main.pdf</t>
-  </si>
-  <si>
-    <t>308 zhu 1-s2.0-S0031920109002180-main.pdf</t>
+    <t>297 zahirovic ggge2126.pdf</t>
+  </si>
+  <si>
+    <t>3 Agius ggge20274.pdf</t>
+  </si>
+  <si>
+    <t>303 2011JES ZhangSiqi.pdf</t>
   </si>
   <si>
     <t>309 Geophys. J. Int.-2015-Zhu-18-52.pdf</t>
@@ -269,18 +164,12 @@
     <t>32 bower ggge20015 (1).pdf</t>
   </si>
   <si>
+    <t>33 bower 1-s2.0-S0031920112001732-main.pdf</t>
+  </si>
+  <si>
     <t>34 bower 1-s2.0-S0012821X10008083-main.pdf</t>
   </si>
   <si>
-    <t>4 Ali Geophys. J. Int.-2010-Ali-557-71.pdf</t>
-  </si>
-  <si>
-    <t>40 bull1-s2.0-S0031920110000518-main.pdf</t>
-  </si>
-  <si>
-    <t>42 Burkett ggge1836.pdf</t>
-  </si>
-  <si>
     <t>45 chen jgrb51019.pdf</t>
   </si>
   <si>
@@ -290,10 +179,13 @@
     <t>49 Geophys. J. Int.-2014-Colombi-gji-ggu112.pdf</t>
   </si>
   <si>
-    <t>5 alparone jgrb50364.pdf</t>
-  </si>
-  <si>
-    <t>54 conrad 1-s2.0-S003192010900209X-main.pdf</t>
+    <t>50 Colombi_et_al-2012-Geophysical_Journal_International.pdf</t>
+  </si>
+  <si>
+    <t>60 Currenti_et_al-2010-Geophysical_Journal_International.pdf</t>
+  </si>
+  <si>
+    <t>61 currenti 1-s2.0-S0012821X11005784-main.pdf</t>
   </si>
   <si>
     <t>63 de boer gmd-7-2141-2014.pdf</t>
@@ -308,16 +200,7 @@
     <t>72 Geophys. J. Int.-2013-Drilleau-1165-83.pdf</t>
   </si>
   <si>
-    <t>79 faccenna tect20012.pdf</t>
-  </si>
-  <si>
-    <t>8 arrial On the Sensitivity of 3-D Thermal Convection Codes to Numerical D.pdf</t>
-  </si>
-  <si>
-    <t>80 faccenna 1-s2.0-S0012821X10005224-main.pdf</t>
-  </si>
-  <si>
-    <t>83 fenoglio 1-s2.0-S0264370710000037-main.pdf</t>
+    <t>86 florido 1-s2.0-S1040618210003563-main.pdf</t>
   </si>
   <si>
     <t>88 MSc thesis Fraters-MRT-3349381.pdf</t>
@@ -326,85 +209,88 @@
     <t>89 glassi 1-s2.0-S0921818114002008-main.pdf</t>
   </si>
   <si>
-    <t>90 Geophys. J. Int.-2014-Galvez-1222-40.pdf</t>
-  </si>
-  <si>
-    <t>95 goddeke1-s2.0-S0021999112007115-main.pdf</t>
-  </si>
-  <si>
-    <t>98 han 1-s2.0-S0019103510004537-main.pdf</t>
-  </si>
-  <si>
-    <t>99 han 1-s2.0-S0019103509005193-main.pdf</t>
-  </si>
-  <si>
-    <t>ASPECT, PyLith, Virtual California</t>
+    <t>92 gharti 1-s2.0-S0045794912000727-main.pdf</t>
+  </si>
+  <si>
+    <t>97 groh 1-s2.0-S0921818112001567-main.pdf</t>
+  </si>
+  <si>
+    <t>PyLith, Virtual California</t>
+  </si>
+  <si>
+    <t>Citcom, GMT</t>
+  </si>
+  <si>
+    <t>FLEXWIN, SPECFEM, GMT</t>
+  </si>
+  <si>
+    <t>Citcom, ConMan</t>
+  </si>
+  <si>
+    <t>ASPECT, SPECFEM</t>
+  </si>
+  <si>
+    <t>Mineos, SPECFEM</t>
+  </si>
+  <si>
+    <t>Citcom, SPECFEM</t>
+  </si>
+  <si>
+    <t>ConMan, GMT</t>
+  </si>
+  <si>
+    <t>FLEXWIN, SPECFEM</t>
+  </si>
+  <si>
+    <t>PyLith, GMT</t>
+  </si>
+  <si>
+    <t>SELEN, GMT</t>
+  </si>
+  <si>
+    <t>AxiSEM, Mineos, SPECFEM</t>
+  </si>
+  <si>
+    <t>Mineos, GMT</t>
+  </si>
+  <si>
+    <t>ASPECT, SPECFEM, Gmsh</t>
+  </si>
+  <si>
+    <t>SPECFEM, Gmsh</t>
+  </si>
+  <si>
+    <t>AxiSEM, GMT</t>
+  </si>
+  <si>
+    <t>ASPECT, Citcom</t>
+  </si>
+  <si>
+    <t>Citcom, SELEN, GMT</t>
+  </si>
+  <si>
+    <t>SPECFEM, GMT</t>
+  </si>
+  <si>
+    <t>AxiSEM, SPECFEM</t>
+  </si>
+  <si>
+    <t>RELAX, GMT</t>
+  </si>
+  <si>
+    <t>ASPECT, Mineos</t>
+  </si>
+  <si>
+    <t>ASPECT, Citcom, GMT</t>
+  </si>
+  <si>
+    <t>PyLith, SNAC</t>
+  </si>
+  <si>
+    <t>AxiSEM, SPECFEM, GMT</t>
   </si>
   <si>
     <t>ASPECT, PyLith</t>
-  </si>
-  <si>
-    <t>ASPECT, RELAX</t>
-  </si>
-  <si>
-    <t>ASPECT, Citcom</t>
-  </si>
-  <si>
-    <t>FLEXWIN, SPECFEM</t>
-  </si>
-  <si>
-    <t>ASPECT, Citcom, ConMan</t>
-  </si>
-  <si>
-    <t>ASPECT, SPECFEM</t>
-  </si>
-  <si>
-    <t>Mineos, SPECFEM</t>
-  </si>
-  <si>
-    <t>ASPECT, Citcom, SPECFEM</t>
-  </si>
-  <si>
-    <t>ASPECT, ConMan</t>
-  </si>
-  <si>
-    <t>ASPECT, FLEXWIN, SPECFEM</t>
-  </si>
-  <si>
-    <t>ASPECT, Calypso</t>
-  </si>
-  <si>
-    <t>ASPECT, SELEN</t>
-  </si>
-  <si>
-    <t>ASPECT, FLEXWIN</t>
-  </si>
-  <si>
-    <t>ASPECT, AxiSEM, Mineos, SPECFEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPECT,  MAG </t>
-  </si>
-  <si>
-    <t>ASPECT, Mineos</t>
-  </si>
-  <si>
-    <t>ASPECT, Ellipsis3d</t>
-  </si>
-  <si>
-    <t>ASPECT, Citcom, SELEN</t>
-  </si>
-  <si>
-    <t>ASPECT, AxiSEM</t>
-  </si>
-  <si>
-    <t>ASPECT, AxiSEM, SPECFEM</t>
-  </si>
-  <si>
-    <t>ASPECT, Virtual California</t>
-  </si>
-  <si>
-    <t>PyLith, SNAC</t>
   </si>
 </sst>
 </file>
@@ -471,10 +357,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +371,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +382,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +393,7 @@
         <v>2.0</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -515,10 +401,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -529,7 +415,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +426,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +437,7 @@
         <v>2.0</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +448,7 @@
         <v>2.0</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +459,7 @@
         <v>2.0</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -584,7 +470,7 @@
         <v>2.0</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -595,7 +481,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -606,7 +492,7 @@
         <v>2.0</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -617,7 +503,7 @@
         <v>3.0</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -628,7 +514,7 @@
         <v>2.0</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -639,7 +525,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -647,10 +533,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -661,7 +547,7 @@
         <v>2.0</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -669,10 +555,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -683,7 +569,7 @@
         <v>2.0</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -691,10 +577,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
@@ -705,7 +591,7 @@
         <v>2.0</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +602,7 @@
         <v>2.0</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -727,7 +613,7 @@
         <v>2.0</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -738,7 +624,7 @@
         <v>2.0</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -746,10 +632,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -760,7 +646,7 @@
         <v>2.0</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -771,7 +657,7 @@
         <v>2.0</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -782,7 +668,7 @@
         <v>2.0</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -793,7 +679,7 @@
         <v>2.0</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -804,7 +690,7 @@
         <v>2.0</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -812,10 +698,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -826,7 +712,7 @@
         <v>2.0</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -837,7 +723,7 @@
         <v>2.0</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -848,7 +734,7 @@
         <v>2.0</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -859,7 +745,7 @@
         <v>2.0</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
@@ -870,7 +756,7 @@
         <v>2.0</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
@@ -878,10 +764,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
@@ -892,7 +778,7 @@
         <v>2.0</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
@@ -903,7 +789,7 @@
         <v>2.0</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
@@ -914,7 +800,7 @@
         <v>2.0</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
@@ -925,7 +811,7 @@
         <v>2.0</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
@@ -933,10 +819,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -947,7 +833,7 @@
         <v>2.0</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
@@ -958,7 +844,7 @@
         <v>2.0</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
@@ -969,7 +855,7 @@
         <v>2.0</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -980,7 +866,7 @@
         <v>2.0</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -991,7 +877,7 @@
         <v>2.0</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -1002,7 +888,7 @@
         <v>3.0</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
@@ -1010,10 +896,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -1024,7 +910,7 @@
         <v>2.0</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
@@ -1035,7 +921,7 @@
         <v>2.0</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
@@ -1043,10 +929,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
@@ -1057,7 +943,7 @@
         <v>2.0</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
@@ -1065,10 +951,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -1079,7 +965,7 @@
         <v>2.0</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
@@ -1090,7 +976,7 @@
         <v>2.0</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -1101,7 +987,7 @@
         <v>2.0</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
@@ -1112,7 +998,7 @@
         <v>2.0</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
@@ -1123,7 +1009,7 @@
         <v>2.0</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
@@ -1134,7 +1020,7 @@
         <v>2.0</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
@@ -1142,10 +1028,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
@@ -1156,7 +1042,7 @@
         <v>2.0</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
@@ -1167,458 +1053,7 @@
         <v>2.0</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
         <v>77</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C80" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C87" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C106" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
